--- a/storage/app/templates/SummaryOfTrainingsAndSeminars.xlsx
+++ b/storage/app/templates/SummaryOfTrainingsAndSeminars.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="15345" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="15345" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,15 +210,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>971549</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -241,7 +241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="66674"/>
+          <a:off x="790575" y="38099"/>
           <a:ext cx="704849" cy="704849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -519,14 +519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
